--- a/NformTester/NformTester/Keywordscripts/600.20.20.80_ConfigureActionTimeoutOnShutdownActionProperties.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.80_ConfigureActionTimeoutOnShutdownActionProperties.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -3631,10 +3631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Clear configuration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3680,6 +3676,10 @@
   </si>
   <si>
     <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4660,7 +4660,7 @@
   <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4792,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -4823,7 +4823,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4884,7 +4884,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>2</v>
@@ -4948,7 +4948,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -4981,7 +4981,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -5010,7 +5010,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -5087,7 +5087,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="20"/>
@@ -5209,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="20"/>
@@ -5240,7 +5240,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="5"/>
@@ -5358,7 +5358,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="5"/>
@@ -5387,7 +5387,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -5465,7 +5465,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -5515,7 +5515,7 @@
         <v>56</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -5565,10 +5565,10 @@
         <v>7</v>
       </c>
       <c r="H31" s="23" t="s">
+        <v>810</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>811</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>812</v>
       </c>
       <c r="J31" s="5">
         <v>10</v>
@@ -5655,7 +5655,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="5"/>
@@ -5703,7 +5703,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>2</v>
@@ -5733,7 +5733,7 @@
         <v>56</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -5855,7 +5855,7 @@
         <v>56</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
